--- a/Documenti/Modello Casi D'uso/UC Ricerca Locazione.xlsx
+++ b/Documenti/Modello Casi D'uso/UC Ricerca Locazione.xlsx
@@ -33,19 +33,19 @@
     <t xml:space="preserve">IDENTIFICATORE </t>
   </si>
   <si>
-    <t xml:space="preserve">ID:14</t>
+    <t xml:space="preserve">ID:9</t>
   </si>
   <si>
     <t xml:space="preserve">BREVE DESCRIZIONE</t>
   </si>
   <si>
-    <t xml:space="preserve">Ricerca fra le locazioni caricate nel sistema.</t>
+    <t xml:space="preserve">Ricerca  le locazioni presenti nel sistema.</t>
   </si>
   <si>
     <t xml:space="preserve">ATTORI PRIMARI</t>
   </si>
   <si>
-    <t xml:space="preserve">Locatario</t>
+    <t xml:space="preserve">Utente </t>
   </si>
   <si>
     <t xml:space="preserve">ATTORI SECONDARI</t>
@@ -63,21 +63,53 @@
     <t xml:space="preserve">PASSI DEL CASO D'USO</t>
   </si>
   <si>
-    <t xml:space="preserve">1. L'utente seleziona il box "Ricerca Locazione"
-2. L'utente inserisce i criteri di ricerca.
-3. Il sistema restituisce le locazioni disponibili a seconda dei criteri scelti dall'utente.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. L'utente seleziona l’icona “Area Viaggiatore” .
+     1.1. L’utente selezione l’icona relativa alla “Ricerca Locazione” .
+          1.1.1. L’utente sceglie di effettuare una ricerca globale delle locazioni, completando
+                   Il form relativo con i parametri voluti.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">                   1.1.1.1. Il sistema restituisce le locazioni disponibili a seconda dei parametri 
+                                Scelti dall'utente.
+          1.1.2. L’utente sceglie di effettuare un ricerca per locazione, selezionando l’icona 
+                   Relativa al  tipo di locazione voluta.
+                   1.1.2.1. L’utente completa il form scelto con i parametri voluti.
+                                 1.1.2.1.1 Il sistema restituisce le locazioni disponibili a seconda dei                                                         parametri  scelti dall'utente.
+                   1.1.2.2. L’utente sceglie di effettuate un ricerca per locazione avanzata.
+                                 1.1.2.2.1 L’utente completa il form scelto con i parametri voluti.
+                                               1.1.2.2.1.1 Il sistema restituisce le locazioni disponibili a 
+                                                                  Seconda dei  parametri  scelti dall'utente.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">POSTCONDIZIONI</t>
   </si>
   <si>
-    <t xml:space="preserve">L'utente ha ottenuto il risultato della ricerca.</t>
+    <t xml:space="preserve">L'utente visualizza le locazioni che rispettano i parametri da lui scelti</t>
   </si>
   <si>
     <t xml:space="preserve">SEQUENZE DEGLI EVENTI ALTERNATIVE</t>
   </si>
   <si>
-    <t xml:space="preserve">Se i dati inseriti non sono corretti il sistema restituisce una pagina di errore</t>
+    <t xml:space="preserve">Il sistema restituisce una pagina di errore perché i dati inseriti dall’utente non sono corretti 
+Oppure non restituisce nessuna locazione perché non esiste una locazione nel sistema conforme
+Ai parametri scelti dall’utente.</t>
   </si>
 </sst>
 </file>
@@ -87,7 +119,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -109,6 +141,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,9 +192,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -182,14 +225,14 @@
   <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.7692307692308"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.7975708502024"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.0890688259109"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -240,7 +283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="194.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
@@ -256,11 +299,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -288,7 +331,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.18218623481781"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -314,7 +357,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.18218623481781"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
